--- a/Exercises/3. SUMIF and related Functions - Exercise.xlsx
+++ b/Exercises/3. SUMIF and related Functions - Exercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alphad.sharepoint.com/sites/Clients/Shared Documents/HSBC/2023/12199 - HSBC EMEA - Excel Training Sheffield Grads 2023/Materials/Session 4- IF Functions/Exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\hsbc-if-functions\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{02D6AEA3-AE39-4CF4-8CDA-EC09B454323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AC0CF2-63B3-446C-B477-6822B803FC71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09E6466-FABB-4277-8FE8-3AAA8E2B76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{789A9EF7-4B4E-4531-ACAA-965312D8653E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{789A9EF7-4B4E-4531-ACAA-965312D8653E}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="7" r:id="rId1"/>
@@ -3458,9 +3458,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AAE9364B-A74D-403B-890A-6B53E51E1C80}" name="Company"/>
     <tableColumn id="2" xr3:uid="{0AACFAAF-2C54-4029-8276-9261F9543EC4}" name="Symbol"/>
-    <tableColumn id="3" xr3:uid="{A6047FB8-279D-48CF-9640-E75053A3D27E}" name="Index Weighting Jan 2023" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{56F32C69-9A40-431D-98EA-0CC4AB06D834}" name="YTD Return" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7F841942-A6EC-43D3-8272-7D5CB9001E59}" name="Weighted YTD return" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{A6047FB8-279D-48CF-9640-E75053A3D27E}" name="Index Weighting Jan 2023" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{56F32C69-9A40-431D-98EA-0CC4AB06D834}" name="YTD Return" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7F841942-A6EC-43D3-8272-7D5CB9001E59}" name="Weighted YTD return" dataDxfId="3">
       <calculatedColumnFormula>E12*F12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3474,9 +3474,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{38A2E8EC-E769-4C57-B12F-694E0A2F2274}" name="Company"/>
     <tableColumn id="2" xr3:uid="{4F4FE57A-FC06-48CB-BFCB-C5E4C58AACC0}" name="Symbol"/>
-    <tableColumn id="3" xr3:uid="{7B179B61-4D0F-4071-9E6A-A6E68EAA1160}" name="Index Weighting Jan 2023" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{415CA600-16D9-4041-841D-819A9F03CC58}" name="YTD Return" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{433E6450-344A-4F01-847D-4605E04F4060}" name="Weighted YTD return" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{7B179B61-4D0F-4071-9E6A-A6E68EAA1160}" name="Index Weighting Jan 2023" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{415CA600-16D9-4041-841D-819A9F03CC58}" name="YTD Return" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{433E6450-344A-4F01-847D-4605E04F4060}" name="Weighted YTD return" dataDxfId="0">
       <calculatedColumnFormula>E12*F12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3803,7 +3803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C5DBB1-38D5-49EE-A7E2-6C7EE35650E2}">
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -13137,7 +13137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71E2B19-8C9B-4980-9344-D300DE123848}">
   <dimension ref="B3:K514"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -22334,6 +22334,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -22344,15 +22353,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22622,6 +22622,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14844F9-C8C9-4799-959B-B7BB5E32D5A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A8C231-B608-4A8C-AA42-DE2C6D57122F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22629,14 +22637,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="059fecdb-ee26-4135-81c8-712a955c51df"/>
     <ds:schemaRef ds:uri="26d2fa48-a9bb-4686-8122-5406e5c0c038"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E14844F9-C8C9-4799-959B-B7BB5E32D5A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
